--- a/guitar/tableMenu.xlsx
+++ b/guitar/tableMenu.xlsx
@@ -14,265 +14,265 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
   <x:si>
+    <x:t>r_beforejob_day</x:t>
+  </x:si>
+  <x:si>
     <x:t>r_introduction_1</x:t>
   </x:si>
   <x:si>
+    <x:t>r_introduction_4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_beforejob_work</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_userpassword</x:t>
+  </x:si>
+  <x:si>
     <x:t>r_beforejob_year</x:t>
   </x:si>
   <x:si>
     <x:t>r_wantjob_head</x:t>
   </x:si>
   <x:si>
+    <x:t>r_introduction_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재학 혹은 졸업학교</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_beforejob</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_school_now</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자소서 4개까지 추가가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_Addr_middle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_Addr_end</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_Addr_head</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r-date_month</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_wantjob_end</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_date_year</x:t>
+  </x:si>
+  <x:si>
+    <x:t>addr_defail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>j_middle_job</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOB_END_DB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOB_HEAD_DB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_id (=세션id)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOB_MIDDLE_DB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인정보는 세션으로 받음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>j_head_job</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_wantjob_middle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_beforejob_month</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_introduction_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우편번호, 지역군, 상세주소 등등</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_beforejob_company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일 등록일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거주지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이력서사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자소서내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_day</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월 등록일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이력서제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소디테일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이메일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자격증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자소서제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>년 등록일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엔드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>희망직종</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헤드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미들</x:t>
+  </x:si>
+  <x:si>
+    <x:t>j_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경력사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주소헤드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_Age</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대외활동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연락처</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이력서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경력일시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>희망직종_허리</x:t>
+  </x:si>
+  <x:si>
     <x:t>m_Phone</x:t>
   </x:si>
   <x:si>
+    <x:t>r_title</x:t>
+  </x:si>
+  <x:si>
     <x:t>m_userid</x:t>
   </x:si>
   <x:si>
+    <x:t>주요업무(3가지)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>희망직종_머리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이력서키값(id)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>희망직종_다리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>r_picture</x:t>
+  </x:si>
+  <x:si>
     <x:t>m_Email</x:t>
   </x:si>
   <x:si>
-    <x:t>r_title</x:t>
+    <x:t>m_Gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>m_Name</x:t>
   </x:si>
   <x:si>
     <x:t>resume_db</x:t>
   </x:si>
   <x:si>
-    <x:t>m_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_Gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주요업무(3가지)</x:t>
+    <x:t>r_school</x:t>
   </x:si>
   <x:si>
     <x:t>USER_DB</x:t>
   </x:si>
   <x:si>
-    <x:t>희망직종_허리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>희망직종_머리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이력서키값(id)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>희망직종_다리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_picture</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_school</x:t>
+    <x:t>addr_db</x:t>
+  </x:si>
+  <x:si>
+    <x:t>j_keyid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>j_end_job</x:t>
   </x:si>
   <x:si>
     <x:t>r_major</x:t>
-  </x:si>
-  <x:si>
-    <x:t>addr_db</x:t>
-  </x:si>
-  <x:si>
-    <x:t>j_keyid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>j_end_job</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_beforejob_work</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_introduction_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_userpassword</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_beforejob_day</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재학 혹은 졸업학교</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_wantjob_end</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_date_year</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_beforejob</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_school_now</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자소서 4개까지 추가가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_Addr_middle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_Addr_end</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_Addr_head</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r-date_month</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인정보는 세션으로 받음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_id (=세션id)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>j_middle_job</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소헤드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우편번호, 지역군, 상세주소 등등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_beforejob_company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연락처</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경력일시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m_Age</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경력사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대외활동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현황</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이력서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자소서내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이메일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자격증</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일 등록일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이력서제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자소서제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거주지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_day</x:t>
-  </x:si>
-  <x:si>
-    <x:t>년 등록일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이력서사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월 등록일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_introduction_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_beforejob_month</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_wantjob_middle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>r_introduction_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소디테일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>희망직종</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헤드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>addr_defail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>j_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미들</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엔드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>j_head_job</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOB_HEAD_DB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOB_MIDDLE_DB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOB_END_DB</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -510,13 +510,13 @@
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:dimension ref="G3:R24"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="E10" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="N18" activeCellId="0" sqref="N18:N19"/>
+    <x:sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="O5" activeCellId="0" sqref="O5:O5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="16.4"/>
   <x:cols>
-    <x:col min="7" max="7" width="10.628906" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
     <x:col min="8" max="8" width="15.058594" bestFit="1" customWidth="1"/>
     <x:col min="10" max="10" width="6.75" customWidth="1"/>
     <x:col min="11" max="11" width="8.375" customWidth="1"/>
@@ -531,307 +531,307 @@
   <x:sheetData>
     <x:row r="3" spans="7:18">
       <x:c r="G3" s="3" t="s">
-        <x:v>45</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H3" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="M3" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="N3" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="P3" t="s">
-        <x:v>26</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="Q3" t="s">
-        <x:v>17</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="R3" t="s">
-        <x:v>57</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="7:17">
       <x:c r="G4" s="3" t="s">
-        <x:v>50</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H4" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="M4" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="N4" s="2"/>
       <x:c r="P4" t="s">
-        <x:v>61</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="Q4" t="s">
-        <x:v>18</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="7:17">
       <x:c r="G5" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H5" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M5" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="N5" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P5" t="s">
-        <x:v>51</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="Q5" t="s">
-        <x:v>30</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="7:14">
       <x:c r="G6" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H6" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="M6" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="N6" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="7:18">
       <x:c r="G7" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="M7" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="N7" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P7" t="s">
-        <x:v>31</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="Q7" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R7" t="s">
-        <x:v>49</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="7:17">
       <x:c r="G8" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H8" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I8" t="s">
-        <x:v>40</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M8" s="1"/>
       <x:c r="N8" s="1"/>
       <x:c r="P8" t="s">
-        <x:v>63</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q8" t="s">
-        <x:v>72</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="7:17">
       <x:c r="G9" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H9" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="M9" s="1"/>
       <x:c r="N9" s="1"/>
       <x:c r="P9" t="s">
-        <x:v>53</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="Q9" t="s">
-        <x:v>75</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="7:17">
       <x:c r="G10" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H10" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M10" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="N10" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="Q10" t="s">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="7:14">
       <x:c r="G11" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H11" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M11" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N11" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="7:14">
       <x:c r="G12" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H12" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="M12" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N12" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="7:18">
       <x:c r="G13" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H13" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="M13" s="1"/>
       <x:c r="N13" s="1"/>
       <x:c r="Q13" t="s">
-        <x:v>48</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="R13" t="s">
-        <x:v>29</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="13:18">
       <x:c r="M14" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="N14" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q14" t="s">
-        <x:v>46</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="R14" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="13:18">
       <x:c r="M15" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="N15" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="Q15" t="s">
-        <x:v>71</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="R15" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="13:18">
       <x:c r="M16" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N16" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="Q16" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="R16" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="Q16" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="R16" t="s">
-        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="17:18">
       <x:c r="Q17" t="s">
-        <x:v>69</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="R17" t="s">
-        <x:v>25</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="7:18">
       <x:c r="G18" t="s">
-        <x:v>42</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="K18" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="L18" s="4" t="s">
-        <x:v>84</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="M18" s="4" t="s">
-        <x:v>78</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N18" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="Q18" t="s">
-        <x:v>60</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="R18" t="s">
-        <x:v>41</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="7:18">
       <x:c r="G19" t="s">
-        <x:v>39</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H19" t="s">
-        <x:v>19</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="K19" s="5"/>
       <x:c r="L19" s="7"/>
       <x:c r="M19" s="4"/>
       <x:c r="N19" s="4" t="s">
-        <x:v>83</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="Q19" t="s">
-        <x:v>10</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="R19" t="s">
-        <x:v>22</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="7:14">
       <x:c r="G20" t="s">
-        <x:v>76</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H20" t="s">
-        <x:v>79</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="K20" s="5"/>
       <x:c r="L20" s="7" t="s">
-        <x:v>85</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="M20" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N20" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="11:14">
@@ -839,7 +839,7 @@
       <x:c r="L21" s="7"/>
       <x:c r="M21" s="4"/>
       <x:c r="N21" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="11:14">
@@ -847,26 +847,26 @@
       <x:c r="L22" s="7"/>
       <x:c r="M22" s="4"/>
       <x:c r="N22" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="11:14">
       <x:c r="K23" s="5"/>
       <x:c r="L23" s="7" t="s">
-        <x:v>86</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="M23" s="4" t="s">
-        <x:v>82</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N23" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="12:14">
       <x:c r="L24" s="7"/>
       <x:c r="M24" s="4"/>
       <x:c r="N24" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
